--- a/contents/Dreamer Chairli_데이터테이블.xlsx
+++ b/contents/Dreamer Chairli_데이터테이블.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Atents\Desktop\Dreamer Chairli\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Atents\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6690D4BC-C04E-4696-A6B4-E5F1FD090EA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE39631A-FCBB-4733-8B0F-71EF21D5F6EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="스키마" sheetId="10" r:id="rId1"/>
@@ -2826,7 +2826,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="175">
   <si>
     <t>ATKpower_Min</t>
   </si>
@@ -3507,7 +3507,46 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>NPC대화</t>
+    <t>Index</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Field</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>번호</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열
+10001-10016 트리거(1만번대)
+20001-20011 아이템(2만번대)
+30001-30004 캐릭터(3만번대)
+40001-40003 스킬(4만번대)
+50001-50004 몬스터(5만번대)
+60001-60005 NPC(6만번대)
+70001-70006 NPC대화(7만번대)</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -3518,7 +3557,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="#,##0_ "/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -3599,14 +3638,6 @@
       <charset val="129"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -3644,7 +3675,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3672,6 +3703,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3704,7 +3741,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3748,16 +3785,10 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3766,28 +3797,34 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3974,7 +4011,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="totalRow" dxfId="11"/>
@@ -3983,7 +4020,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="8"/>
       <tableStyleElement type="firstColumnStripe" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="Light Style 1 - Accent 1" table="0" count="8" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -4299,9 +4336,9 @@
   <sheetPr>
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
@@ -4318,42 +4355,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="G1" s="20" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="G1" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="J2" s="15" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4361,25 +4398,25 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="14" t="s">
         <v>105</v>
       </c>
       <c r="G3" s="2">
         <v>1</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="I3" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="J3" s="15" t="s">
+      <c r="J3" s="14" t="s">
         <v>105</v>
       </c>
     </row>
@@ -4387,25 +4424,25 @@
       <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="16" t="s">
         <v>110</v>
       </c>
       <c r="G4" s="2">
         <v>2</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="I4" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="J4" s="18" t="s">
+      <c r="J4" s="16" t="s">
         <v>129</v>
       </c>
     </row>
@@ -4413,25 +4450,25 @@
       <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="14" t="s">
         <v>106</v>
       </c>
       <c r="G5" s="2">
         <v>3</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="I5" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="J5" s="15" t="s">
+      <c r="J5" s="14" t="s">
         <v>130</v>
       </c>
     </row>
@@ -4439,25 +4476,25 @@
       <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="14" t="s">
         <v>107</v>
       </c>
       <c r="G6" s="2">
         <v>4</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="I6" s="15" t="s">
+      <c r="I6" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="J6" s="15" t="s">
+      <c r="J6" s="14" t="s">
         <v>131</v>
       </c>
     </row>
@@ -4465,25 +4502,25 @@
       <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="14" t="s">
         <v>108</v>
       </c>
       <c r="G7" s="2">
         <v>5</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="I7" s="19" t="s">
+      <c r="I7" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="J7" s="15" t="s">
+      <c r="J7" s="14" t="s">
         <v>133</v>
       </c>
     </row>
@@ -4491,25 +4528,25 @@
       <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="16" t="s">
         <v>118</v>
       </c>
       <c r="G8" s="2">
         <v>6</v>
       </c>
-      <c r="H8" s="14" t="s">
+      <c r="H8" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="I8" s="19" t="s">
+      <c r="I8" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="J8" s="15" t="s">
+      <c r="J8" s="14" t="s">
         <v>132</v>
       </c>
     </row>
@@ -4517,13 +4554,13 @@
       <c r="G9" s="2">
         <v>7</v>
       </c>
-      <c r="H9" s="14" t="s">
+      <c r="H9" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="I9" s="19" t="s">
+      <c r="I9" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="J9" s="15" t="s">
+      <c r="J9" s="14" t="s">
         <v>134</v>
       </c>
     </row>
@@ -4531,59 +4568,59 @@
       <c r="G10" s="2">
         <v>8</v>
       </c>
-      <c r="H10" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="I10" s="19" t="s">
+      <c r="H10" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="I10" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="J10" s="15" t="s">
+      <c r="J10" s="14" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
       <c r="G11" s="2">
         <v>9</v>
       </c>
-      <c r="H11" s="14" t="s">
+      <c r="H11" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="I11" s="19" t="s">
+      <c r="I11" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="J11" s="15" t="s">
+      <c r="J11" s="14" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="15" t="s">
         <v>102</v>
       </c>
       <c r="G12" s="2">
         <v>10</v>
       </c>
-      <c r="H12" s="13" t="s">
+      <c r="H12" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I12" s="19" t="s">
+      <c r="I12" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="J12" s="15" t="s">
+      <c r="J12" s="14" t="s">
         <v>137</v>
       </c>
     </row>
@@ -4591,13 +4628,13 @@
       <c r="A13" s="2">
         <v>1</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="14" t="s">
         <v>105</v>
       </c>
     </row>
@@ -4605,13 +4642,13 @@
       <c r="A14" s="2">
         <v>2</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="16" t="s">
         <v>111</v>
       </c>
     </row>
@@ -4619,45 +4656,45 @@
       <c r="A15" s="2">
         <v>3</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="G15" s="20" t="s">
+      <c r="G15" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>4</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="G16" s="17" t="s">
+      <c r="G16" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="H16" s="17" t="s">
+      <c r="H16" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="I16" s="17" t="s">
+      <c r="I16" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="J16" s="17" t="s">
+      <c r="J16" s="15" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4665,25 +4702,25 @@
       <c r="A17" s="2">
         <v>5</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="14" t="s">
         <v>115</v>
       </c>
       <c r="G17" s="2">
         <v>1</v>
       </c>
-      <c r="H17" s="15" t="s">
+      <c r="H17" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="I17" s="15" t="s">
+      <c r="I17" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="J17" s="15" t="s">
+      <c r="J17" s="14" t="s">
         <v>105</v>
       </c>
     </row>
@@ -4691,25 +4728,25 @@
       <c r="A18" s="2">
         <v>6</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="14" t="s">
         <v>114</v>
       </c>
       <c r="G18" s="2">
         <v>2</v>
       </c>
-      <c r="H18" s="13" t="s">
+      <c r="H18" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I18" s="15" t="s">
+      <c r="I18" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="J18" s="18" t="s">
+      <c r="J18" s="16" t="s">
         <v>146</v>
       </c>
     </row>
@@ -4717,25 +4754,25 @@
       <c r="A19" s="2">
         <v>7</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="14" t="s">
         <v>116</v>
       </c>
       <c r="G19" s="2">
         <v>3</v>
       </c>
-      <c r="H19" s="13" t="s">
+      <c r="H19" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="I19" s="15" t="s">
+      <c r="I19" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="J19" s="15" t="s">
+      <c r="J19" s="14" t="s">
         <v>147</v>
       </c>
     </row>
@@ -4743,13 +4780,13 @@
       <c r="G20" s="2">
         <v>4</v>
       </c>
-      <c r="H20" s="14" t="s">
+      <c r="H20" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="I20" s="15" t="s">
+      <c r="I20" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="J20" s="15" t="s">
+      <c r="J20" s="14" t="s">
         <v>148</v>
       </c>
     </row>
@@ -4757,13 +4794,13 @@
       <c r="G21" s="2">
         <v>5</v>
       </c>
-      <c r="H21" s="13" t="s">
+      <c r="H21" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="I21" s="19" t="s">
+      <c r="I21" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="J21" s="15" t="s">
+      <c r="J21" s="14" t="s">
         <v>149</v>
       </c>
     </row>
@@ -4771,59 +4808,59 @@
       <c r="G22" s="2">
         <v>6</v>
       </c>
-      <c r="H22" s="13" t="s">
+      <c r="H22" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="I22" s="19" t="s">
+      <c r="I22" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="J22" s="19" t="s">
+      <c r="J22" s="14" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
       <c r="G23" s="2">
         <v>7</v>
       </c>
-      <c r="H23" s="13" t="s">
+      <c r="H23" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="I23" s="19" t="s">
+      <c r="I23" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="J23" s="19" t="s">
+      <c r="J23" s="14" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="D24" s="17" t="s">
+      <c r="D24" s="15" t="s">
         <v>102</v>
       </c>
       <c r="G24" s="2">
         <v>8</v>
       </c>
-      <c r="H24" s="13" t="s">
+      <c r="H24" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I24" s="19" t="s">
+      <c r="I24" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="J24" s="19" t="s">
+      <c r="J24" s="14" t="s">
         <v>151</v>
       </c>
     </row>
@@ -4831,25 +4868,25 @@
       <c r="A25" s="2">
         <v>1</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="D25" s="14" t="s">
         <v>105</v>
       </c>
       <c r="G25" s="2">
         <v>9</v>
       </c>
-      <c r="H25" s="13" t="s">
+      <c r="H25" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I25" s="19" t="s">
+      <c r="I25" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="J25" s="19" t="s">
+      <c r="J25" s="14" t="s">
         <v>152</v>
       </c>
     </row>
@@ -4857,13 +4894,13 @@
       <c r="A26" s="2">
         <v>2</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="D26" s="18" t="s">
+      <c r="D26" s="16" t="s">
         <v>161</v>
       </c>
     </row>
@@ -4871,13 +4908,13 @@
       <c r="A27" s="2">
         <v>3</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="D27" s="15" t="s">
+      <c r="D27" s="14" t="s">
         <v>120</v>
       </c>
     </row>
@@ -4885,45 +4922,45 @@
       <c r="A28" s="2">
         <v>4</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="C28" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="D28" s="15" t="s">
+      <c r="D28" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="G28" s="20" t="s">
+      <c r="G28" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>5</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C29" s="19" t="s">
+      <c r="C29" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="D29" s="15" t="s">
+      <c r="D29" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="G29" s="17" t="s">
+      <c r="G29" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="H29" s="17" t="s">
+      <c r="H29" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="I29" s="17" t="s">
+      <c r="I29" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="J29" s="17" t="s">
+      <c r="J29" s="15" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4931,25 +4968,25 @@
       <c r="A30" s="2">
         <v>6</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C30" s="19" t="s">
+      <c r="C30" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="D30" s="15" t="s">
+      <c r="D30" s="14" t="s">
         <v>127</v>
       </c>
       <c r="G30" s="2">
         <v>1</v>
       </c>
-      <c r="H30" s="15" t="s">
+      <c r="H30" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="I30" s="15" t="s">
+      <c r="I30" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="J30" s="15" t="s">
+      <c r="J30" s="14" t="s">
         <v>105</v>
       </c>
     </row>
@@ -4957,25 +4994,25 @@
       <c r="A31" s="2">
         <v>7</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C31" s="19" t="s">
+      <c r="C31" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="D31" s="15" t="s">
+      <c r="D31" s="14" t="s">
         <v>123</v>
       </c>
       <c r="G31" s="2">
         <v>2</v>
       </c>
-      <c r="H31" s="13" t="s">
+      <c r="H31" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I31" s="15" t="s">
+      <c r="I31" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="J31" s="23" t="s">
+      <c r="J31" s="18" t="s">
         <v>154</v>
       </c>
     </row>
@@ -4983,25 +5020,25 @@
       <c r="A32" s="2">
         <v>8</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C32" s="19" t="s">
+      <c r="C32" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="D32" s="15" t="s">
+      <c r="D32" s="14" t="s">
         <v>124</v>
       </c>
       <c r="G32" s="2">
         <v>3</v>
       </c>
-      <c r="H32" s="14" t="s">
+      <c r="H32" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="I32" s="15" t="s">
+      <c r="I32" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="J32" s="15" t="s">
+      <c r="J32" s="14" t="s">
         <v>155</v>
       </c>
     </row>
@@ -5009,25 +5046,25 @@
       <c r="A33" s="2">
         <v>9</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C33" s="19" t="s">
+      <c r="C33" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="D33" s="15" t="s">
+      <c r="D33" s="14" t="s">
         <v>125</v>
       </c>
       <c r="G33" s="2">
         <v>4</v>
       </c>
-      <c r="H33" s="13" t="s">
+      <c r="H33" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="I33" s="15" t="s">
+      <c r="I33" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="J33" s="15" t="s">
+      <c r="J33" s="14" t="s">
         <v>157</v>
       </c>
     </row>
@@ -5035,25 +5072,25 @@
       <c r="A34" s="2">
         <v>10</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="19" t="s">
+      <c r="C34" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="D34" s="15" t="s">
+      <c r="D34" s="14" t="s">
         <v>126</v>
       </c>
       <c r="G34" s="2">
         <v>5</v>
       </c>
-      <c r="H34" s="14" t="s">
+      <c r="H34" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="I34" s="19" t="s">
+      <c r="I34" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="J34" s="15" t="s">
+      <c r="J34" s="14" t="s">
         <v>159</v>
       </c>
     </row>
@@ -5061,40 +5098,88 @@
       <c r="A35" s="2">
         <v>11</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C35" s="19" t="s">
+      <c r="C35" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="D35" s="15" t="s">
+      <c r="D35" s="14" t="s">
         <v>128</v>
       </c>
       <c r="G35" s="2">
         <v>6</v>
       </c>
-      <c r="H35" s="13" t="s">
+      <c r="H35" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="I35" s="19" t="s">
+      <c r="I35" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="J35" s="24" t="s">
+      <c r="J35" s="16" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="13">
+      <c r="A36" s="2">
         <v>12</v>
       </c>
-      <c r="B36" s="19" t="s">
+      <c r="B36" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="C36" s="19" t="s">
+      <c r="C36" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="D36" s="19" t="s">
+      <c r="D36" s="14" t="s">
         <v>162</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="25"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="B40" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="C40" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" s="21">
+        <v>1</v>
+      </c>
+      <c r="B41" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="C41" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="D41" s="22" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="132" x14ac:dyDescent="0.3">
+      <c r="A42" s="21">
+        <v>2</v>
+      </c>
+      <c r="B42" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="C42" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="D42" s="23" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -5116,6 +5201,7 @@
     <hyperlink ref="G28:J28" location="NPC!A1" display="NPC" xr:uid="{BCE66CEC-7DD0-45CF-A010-7899B8924BEF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5124,451 +5210,436 @@
   <sheetPr codeName="Sheet8">
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:Q19"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11:Q11"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.5" style="10" customWidth="1"/>
     <col min="2" max="2" width="17.875" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="10"/>
-    <col min="4" max="4" width="6.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="10"/>
-    <col min="7" max="7" width="6.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.75" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9" style="10"/>
-    <col min="10" max="10" width="6.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.125" style="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9" style="10"/>
-    <col min="13" max="13" width="6.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9" style="10"/>
-    <col min="16" max="16" width="7.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.25" style="10" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="10"/>
+    <col min="3" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:2" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="D1" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="E1" s="16"/>
-      <c r="G1" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="H1" s="16"/>
-      <c r="J1" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="K1" s="16"/>
-      <c r="M1" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="N1" s="25"/>
-      <c r="P1" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q1" s="16"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+      <c r="B1" s="20"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="D2" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="J2" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="K2" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="M2" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="N2" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="P2" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q2" s="17" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>10001</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="2">
-        <v>20001</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G3" s="2">
-        <v>30001</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="2">
-        <v>40001</v>
-      </c>
-      <c r="K3" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="M3" s="2">
-        <v>50001</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="P3" s="2">
-        <v>60001</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>10002</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="2">
-        <v>20002</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G4" s="2">
-        <v>30002</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="2">
-        <v>40002</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M4" s="2">
-        <v>50002</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="P4" s="2">
-        <v>60002</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>10003</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="2">
-        <v>20003</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G5" s="2">
-        <v>30003</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="2">
-        <v>40003</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="M5" s="2">
-        <v>50003</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="P5" s="2">
-        <v>60003</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>10004</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="2">
-        <v>20004</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G6" s="2">
-        <v>30004</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M6" s="2">
-        <v>50004</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="P6" s="2">
-        <v>60004</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>10005</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="2">
-        <v>20005</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="P7" s="2">
-        <v>60005</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>10006</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="2">
-        <v>20006</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>10007</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="2">
-        <v>20007</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>10008</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="2">
-        <v>20008</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="19.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10009</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="2">
-        <v>20009</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="P11" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q11" s="16"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>10010</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="2">
-        <v>20010</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="P12" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q12" s="17" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>10011</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="2">
-        <v>20011</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="P13" s="2">
-        <v>70001</v>
-      </c>
-      <c r="Q13" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>10012</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="P14" s="2">
-        <v>70002</v>
-      </c>
-      <c r="Q14" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>10013</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="P15" s="2">
-        <v>70003</v>
-      </c>
-      <c r="Q15" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>10014</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P16" s="2">
-        <v>70004</v>
-      </c>
-      <c r="Q16" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>10015</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="P17" s="2">
-        <v>70005</v>
-      </c>
-      <c r="Q17" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>10016</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="P18" s="2">
-        <v>70006</v>
-      </c>
-      <c r="Q18" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>10017</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="14" t="s">
         <v>164</v>
       </c>
     </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>20001</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>20002</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>20003</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>20004</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>20005</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>20006</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>20007</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>20008</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>20009</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>20010</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>20011</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>30001</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>30002</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>30003</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>30004</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>40001</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>40002</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>40003</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <v>50001</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>50002</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
+        <v>50003</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
+        <v>50004</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
+        <v>60001</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
+        <v>60002</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
+        <v>60003</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
+        <v>60004</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
+        <v>60005</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
+        <v>70001</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
+        <v>70002</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
+        <v>70003</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
+        <v>70004</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
+        <v>70005</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
+        <v>70006</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="P11:Q11"/>
+  <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="P1:Q1"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
@@ -5583,7 +5654,7 @@
   </sheetPr>
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -5598,7 +5669,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="17" t="s">
         <v>138</v>
       </c>
     </row>
@@ -5923,7 +5994,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="26">
+      <c r="A18" s="2">
         <v>1016</v>
       </c>
       <c r="B18" s="2">
@@ -5943,7 +6014,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="18">
+      <c r="A19" s="16">
         <v>1017</v>
       </c>
       <c r="B19" s="2">
@@ -5994,7 +6065,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="17" t="s">
         <v>139</v>
       </c>
     </row>
@@ -6311,7 +6382,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="17" t="s">
         <v>140</v>
       </c>
     </row>
@@ -6349,7 +6420,7 @@
       <c r="K2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="L2" s="22" t="s">
+      <c r="L2" s="1" t="s">
         <v>158</v>
       </c>
     </row>
@@ -6387,7 +6458,7 @@
       <c r="K3" s="2">
         <v>0.5</v>
       </c>
-      <c r="L3" s="13">
+      <c r="L3" s="2">
         <v>0.8</v>
       </c>
     </row>
@@ -6425,7 +6496,7 @@
       <c r="K4" s="2">
         <v>0.5</v>
       </c>
-      <c r="L4" s="13">
+      <c r="L4" s="2">
         <v>0.8</v>
       </c>
     </row>
@@ -6463,7 +6534,7 @@
       <c r="K5" s="2">
         <v>0.5</v>
       </c>
-      <c r="L5" s="13">
+      <c r="L5" s="2">
         <v>0.8</v>
       </c>
     </row>
@@ -6501,7 +6572,7 @@
       <c r="K6" s="2">
         <v>0.5</v>
       </c>
-      <c r="L6" s="13">
+      <c r="L6" s="2">
         <v>0.8</v>
       </c>
     </row>
@@ -7400,7 +7471,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="17" t="s">
         <v>141</v>
       </c>
     </row>
@@ -7562,7 +7633,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="17" t="s">
         <v>142</v>
       </c>
     </row>
@@ -7744,7 +7815,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="17" t="s">
         <v>143</v>
       </c>
     </row>
